--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364136.8832683049</v>
+        <v>377863.241405723</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="C4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="F4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="G4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="H4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="I4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="J4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="K4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="L4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="M4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="N4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="O4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="P4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20644.75087261165</v>
+        <v>20644.75087261151</v>
       </c>
       <c r="C6" t="n">
-        <v>20644.75087261171</v>
+        <v>20644.75087261151</v>
       </c>
       <c r="D6" t="n">
-        <v>20644.75087261148</v>
+        <v>20644.75087261157</v>
       </c>
       <c r="E6" t="n">
-        <v>-60705.83892145858</v>
+        <v>-60705.83892145863</v>
       </c>
       <c r="F6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="G6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="H6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="I6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="J6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="K6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="L6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="M6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="N6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="O6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
       <c r="P6" t="n">
-        <v>72394.16107854142</v>
+        <v>72394.16107854144</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>377863.241405723</v>
+        <v>294077.8396440983</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20644.75087261151</v>
+        <v>20600.61509393039</v>
       </c>
       <c r="C6" t="n">
-        <v>20644.75087261151</v>
+        <v>20600.6150939305</v>
       </c>
       <c r="D6" t="n">
-        <v>20644.75087261157</v>
+        <v>20600.61509393045</v>
       </c>
       <c r="E6" t="n">
-        <v>-60705.83892145863</v>
+        <v>-75515.85576057248</v>
       </c>
       <c r="F6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942757</v>
       </c>
       <c r="G6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942754</v>
       </c>
       <c r="H6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942757</v>
       </c>
       <c r="I6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942757</v>
       </c>
       <c r="J6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942757</v>
       </c>
       <c r="K6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942757</v>
       </c>
       <c r="L6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942759</v>
       </c>
       <c r="M6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942759</v>
       </c>
       <c r="N6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942759</v>
       </c>
       <c r="O6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942759</v>
       </c>
       <c r="P6" t="n">
-        <v>72394.16107854144</v>
+        <v>57584.14423942759</v>
       </c>
     </row>
   </sheetData>
